--- a/starwars_Ch6_max.xlsx
+++ b/starwars_Ch6_max.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BolognaColonel\workspace\excel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BolognaColonel\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138AE299-DBCD-4B34-8CD8-C325F1F6B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF22CB2-4D6F-4CC2-AF6E-753452D7CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19230" yWindow="75" windowWidth="19095" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19230" yWindow="75" windowWidth="19095" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="starwars" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="294">
   <si>
     <t>name</t>
   </si>
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -1379,7 +1379,7 @@
         <v>6935</v>
       </c>
       <c r="K2" s="5">
-        <f ca="1">IFERROR(TODAY()-$J2, "NA")</f>
+        <f t="shared" ref="K2:K33" ca="1" si="2">IFERROR(TODAY()-$J2, "NA")</f>
         <v>39102</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1439,7 +1439,7 @@
         <v>165.25</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G65" si="2">IF(C3="NA",0,IF(E3="NA",0,E3/(C3^2)))</f>
+        <f t="shared" ref="G3:G65" si="3">IF(C3="NA",0,IF(E3="NA",0,E3/(C3^2)))</f>
         <v>26.892323138154829</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -1447,15 +1447,15 @@
         <v>6.43774254168048 Less</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="3">RANK($G3,$G$2:$G$88)</f>
+        <f t="shared" ref="I3:I66" si="4">RANK($G3,$G$2:$G$88)</f>
         <v>14</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J66" ca="1" si="4">IFERROR((YEAR(TODAY())-(YEAR(TODAY())-$O3))*365, "NA")</f>
+        <f t="shared" ref="J3:J66" ca="1" si="5">IFERROR((YEAR(TODAY())-(YEAR(TODAY())-$O3))*365, "NA")</f>
         <v>40880</v>
       </c>
       <c r="K3" s="5">
-        <f ca="1">IFERROR(TODAY()-$J3, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>5157</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1471,7 +1471,7 @@
         <v>112</v>
       </c>
       <c r="P3" s="4" t="b">
-        <f t="shared" ref="P3:P66" si="5">ISNUMBER($O3)</f>
+        <f t="shared" ref="P3:P66" si="6">ISNUMBER($O3)</f>
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1484,11 +1484,11 @@
         <v>25</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T66" ca="1" si="6">_xlfn.XLOOKUP(J3, $C$92:$C$100, $A$92:$A$100, "*Not Found*",-1)</f>
+        <f t="shared" ref="T3:T66" ca="1" si="7">_xlfn.XLOOKUP(J3, $C$92:$C$100, $A$92:$A$100, "*Not Found*",-1)</f>
         <v>A New Hope</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f t="shared" ref="U3:U66" si="7">TRIM(IFERROR(LEFT(S3, SEARCH(",",S3)-1), S3))</f>
+        <f t="shared" ref="U3:U66" si="8">TRIM(IFERROR(LEFT(S3, SEARCH(",",S3)-1), S3))</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C10" si="8">IFERROR(B4/100, "NA")</f>
+        <f t="shared" ref="C4:C10" si="9">IFERROR(B4/100, "NA")</f>
         <v>0.96</v>
       </c>
       <c r="D4" s="1">
@@ -1511,11 +1511,11 @@
         <v>32</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F67" si="9">IFERROR(MROUND(CONVERT(E4, "kg", "lbm"), 0.25), "NA")</f>
+        <f t="shared" ref="F4:F67" si="10">IFERROR(MROUND(CONVERT(E4, "kg", "lbm"), 0.25), "NA")</f>
         <v>70.5</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.722222222222221</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -1523,15 +1523,15 @@
         <v>1.39215654238691 More</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>12045</v>
       </c>
       <c r="K4" s="5">
-        <f ca="1">IFERROR(TODAY()-$J4, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>33992</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1547,7 +1547,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1560,11 +1560,11 @@
         <v>30</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U4" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.02</v>
       </c>
       <c r="D5" s="1">
@@ -1587,11 +1587,11 @@
         <v>136</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>299.75</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.330065679835307</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -1599,15 +1599,15 @@
         <v>0 More</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>15293.500000000033</v>
       </c>
       <c r="K5" s="5">
-        <f ca="1">IFERROR(TODAY()-$J5, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>30743.499999999967</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1623,7 +1623,7 @@
         <v>41.9</v>
       </c>
       <c r="P5" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1636,11 +1636,11 @@
         <v>34</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="D6" s="1">
@@ -1663,11 +1663,11 @@
         <v>49</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.777777777777779</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -1675,15 +1675,15 @@
         <v>11.5522879020575 Less</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6935</v>
       </c>
       <c r="K6" s="5">
-        <f ca="1">IFERROR(TODAY()-$J6, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39102</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1699,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="P6" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1712,11 +1712,11 @@
         <v>39</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Force Awakens</v>
       </c>
       <c r="U6" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>178</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.78</v>
       </c>
       <c r="D7" s="1">
@@ -1739,11 +1739,11 @@
         <v>120</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>264.5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.874005807347558</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -1751,15 +1751,15 @@
         <v>4.54394012751225 More</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>18980</v>
       </c>
       <c r="K7" s="5">
-        <f ca="1">IFERROR(TODAY()-$J7, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>27057</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1775,7 +1775,7 @@
         <v>52</v>
       </c>
       <c r="P7" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1788,11 +1788,11 @@
         <v>42</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U7" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
         <v>165</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.65</v>
       </c>
       <c r="D8" s="1">
@@ -1815,11 +1815,11 @@
         <v>75</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>165.25</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.548209366391188</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -1827,15 +1827,15 @@
         <v>5.78185631344412 Less</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>17155</v>
       </c>
       <c r="K8" s="5">
-        <f ca="1">IFERROR(TODAY()-$J8, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28882</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1851,7 +1851,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1864,11 +1864,11 @@
         <v>42</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U8" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97</v>
       </c>
       <c r="D9" s="1">
@@ -1891,11 +1891,11 @@
         <v>32</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>70.5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.009990434690195</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -1903,15 +1903,15 @@
         <v>0.679924754854888 More</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J9, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>NA</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1927,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1940,11 +1940,11 @@
         <v>46</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U9" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>A New Hope</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>183</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.83</v>
       </c>
       <c r="D10" s="1">
@@ -1967,11 +1967,11 @@
         <v>84</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>185.25</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.082863029651524</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -1979,15 +1979,15 @@
         <v>8.24720265018378 Less</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8760</v>
       </c>
       <c r="K10" s="5">
-        <f ca="1">IFERROR(TODAY()-$J10, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37277</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2003,7 +2003,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -2016,11 +2016,11 @@
         <v>46</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Attack of the Clones</v>
       </c>
       <c r="U10" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2043,11 +2043,11 @@
         <v>77</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169.75</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.245984784446321</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -2055,15 +2055,15 @@
         <v>10.084080895389 Less</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>20805</v>
       </c>
       <c r="K11" s="5">
-        <f ca="1">IFERROR(TODAY()-$J11, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>25232</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -2079,7 +2079,7 @@
         <v>57</v>
       </c>
       <c r="P11" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -2092,11 +2092,11 @@
         <v>25</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U11" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -2119,11 +2119,11 @@
         <v>84</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>185.25</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.766410140334994</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -2131,15 +2131,15 @@
         <v>9.56365553950031 Less</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>15293.500000000033</v>
       </c>
       <c r="K12" s="5">
-        <f ca="1">IFERROR(TODAY()-$J12, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>30743.499999999967</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2155,7 +2155,7 @@
         <v>41.9</v>
       </c>
       <c r="P12" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -2168,11 +2168,11 @@
         <v>54</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U12" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>180</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C76" si="10">IFERROR(B13/100, "NA")</f>
+        <f t="shared" ref="C13:C76" si="11">IFERROR(B13/100, "NA")</f>
         <v>1.8</v>
       </c>
       <c r="D13" s="1">
@@ -2195,11 +2195,11 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -2207,15 +2207,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>23360</v>
       </c>
       <c r="K13" s="5">
-        <f ca="1">IFERROR(TODAY()-$J13, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>22677</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -2231,7 +2231,7 @@
         <v>64</v>
       </c>
       <c r="P13" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -2244,11 +2244,11 @@
         <v>58</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U13" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         <v>228</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="D14" s="1">
@@ -2271,11 +2271,11 @@
         <v>112</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.545090797168363</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -2283,15 +2283,15 @@
         <v>11.7849748826669 Less</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>73000</v>
       </c>
       <c r="K14" s="5">
-        <f ca="1">IFERROR(TODAY()-$J14, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-26963</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -2307,7 +2307,7 @@
         <v>200</v>
       </c>
       <c r="P14" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -2320,11 +2320,11 @@
         <v>39</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U14" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         <v>180</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="D15" s="1">
@@ -2347,11 +2347,11 @@
         <v>80</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176.25</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.691358024691358</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -2359,15 +2359,15 @@
         <v>8.63870765514395 Less</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>10585</v>
       </c>
       <c r="K15" s="5">
-        <f ca="1">IFERROR(TODAY()-$J15, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35452</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -2383,7 +2383,7 @@
         <v>29</v>
       </c>
       <c r="P15" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -2396,11 +2396,11 @@
         <v>65</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U15" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
         <v>173</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.73</v>
       </c>
       <c r="D16" s="1">
@@ -2423,11 +2423,11 @@
         <v>74</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>163.25</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.725182932941294</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -2435,15 +2435,15 @@
         <v>8.60488274689401 Less</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>16060</v>
       </c>
       <c r="K16" s="5">
-        <f ca="1">IFERROR(TODAY()-$J16, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>29977</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -2459,7 +2459,7 @@
         <v>44</v>
       </c>
       <c r="P16" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -2472,11 +2472,11 @@
         <v>46</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Return of the Jedi</v>
       </c>
       <c r="U16" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
         <v>175</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
       <c r="D17" s="1">
@@ -2499,11 +2499,11 @@
         <v>1358</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2994</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>443.42857142857144</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -2511,15 +2511,15 @@
         <v>410.098505748736 More</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>219000</v>
       </c>
       <c r="K17" s="5">
-        <f ca="1">IFERROR(TODAY()-$J17, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-172963</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2535,7 +2535,7 @@
         <v>600</v>
       </c>
       <c r="P17" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -2548,11 +2548,11 @@
         <v>75</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U17" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
         <v>170</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
       <c r="D18" s="1">
@@ -2575,11 +2575,11 @@
         <v>77</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169.75</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.643598615916957</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -2587,15 +2587,15 @@
         <v>6.68646706391835 Less</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>7665</v>
       </c>
       <c r="K18" s="5">
-        <f ca="1">IFERROR(TODAY()-$J18, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38372</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2611,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q18" s="1" t="s">
@@ -2624,11 +2624,11 @@
         <v>78</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U18" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
         <v>180</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="D19" s="1">
@@ -2651,11 +2651,11 @@
         <v>110</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>242.5</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.950617283950614</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -2663,15 +2663,15 @@
         <v>0.620551604115306 More</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J19, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>NA</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2687,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="P19" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="s">
@@ -2700,11 +2700,11 @@
         <v>46</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U19" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>A New Hope</v>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66</v>
       </c>
       <c r="D20" s="1">
@@ -2727,11 +2727,11 @@
         <v>17</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.026629935720841</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -2739,15 +2739,15 @@
         <v>5.69656425588553 More</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>327040</v>
       </c>
       <c r="K20" s="5">
-        <f ca="1">IFERROR(TODAY()-$J20, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-281003</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -2763,7 +2763,7 @@
         <v>896</v>
       </c>
       <c r="P20" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
@@ -2776,11 +2776,11 @@
         <v>83</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U20" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
         <v>170</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
       <c r="D21" s="1">
@@ -2803,11 +2803,11 @@
         <v>75</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>165.25</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.95155709342561</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -2815,15 +2815,15 @@
         <v>7.3785085864097 Less</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>29930</v>
       </c>
       <c r="K21" s="5">
-        <f ca="1">IFERROR(TODAY()-$J21, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>16107</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2839,7 +2839,7 @@
         <v>82</v>
       </c>
       <c r="P21" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
@@ -2852,11 +2852,11 @@
         <v>87</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U21" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
         <v>183</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="D22" s="1">
@@ -2879,11 +2879,11 @@
         <v>78.2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172.5</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.350951058556539</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -2891,15 +2891,15 @@
         <v>9.97911462127877 Less</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>11497.5</v>
       </c>
       <c r="K22" s="5">
-        <f ca="1">IFERROR(TODAY()-$J22, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34539.5</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -2915,7 +2915,7 @@
         <v>31.5</v>
       </c>
       <c r="P22" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q22" s="1" t="s">
@@ -2928,11 +2928,11 @@
         <v>90</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U22" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
         <v>200</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="D23" s="1">
@@ -2955,11 +2955,11 @@
         <v>140</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>308.75</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -2967,15 +2967,15 @@
         <v>1.66993432016469 More</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5475</v>
       </c>
       <c r="K23" s="5">
-        <f ca="1">IFERROR(TODAY()-$J23, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>40562</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2991,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="P23" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q23" s="1" t="s">
@@ -3004,11 +3004,11 @@
         <v>93</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Force Awakens</v>
       </c>
       <c r="U23" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
         <v>190</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
       <c r="D24" s="1">
@@ -3031,11 +3031,11 @@
         <v>113</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.301939058171747</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -3043,15 +3043,15 @@
         <v>2.02812662166356 Less</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>19345</v>
       </c>
       <c r="K24" s="5">
-        <f ca="1">IFERROR(TODAY()-$J24, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>26692</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3067,7 +3067,7 @@
         <v>53</v>
       </c>
       <c r="P24" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -3080,11 +3080,11 @@
         <v>93</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U24" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
         <v>177</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.77</v>
       </c>
       <c r="D25" s="1">
@@ -3107,11 +3107,11 @@
         <v>79</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>174.25</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.216253311628201</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -3119,15 +3119,15 @@
         <v>8.11381236820711 Less</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>11315</v>
       </c>
       <c r="K25" s="5">
-        <f ca="1">IFERROR(TODAY()-$J25, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34722</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3143,7 +3143,7 @@
         <v>31</v>
       </c>
       <c r="P25" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q25" s="1" t="s">
@@ -3156,11 +3156,11 @@
         <v>100</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U25" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
         <v>175</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
       <c r="D26" s="1">
@@ -3183,11 +3183,11 @@
         <v>79</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>174.25</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.795918367346939</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -3195,15 +3195,15 @@
         <v>7.53414731248837 Less</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>13505</v>
       </c>
       <c r="K26" s="5">
-        <f ca="1">IFERROR(TODAY()-$J26, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32532</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -3219,7 +3219,7 @@
         <v>37</v>
       </c>
       <c r="P26" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q26" s="1" t="s">
@@ -3232,11 +3232,11 @@
         <v>93</v>
       </c>
       <c r="T26" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U26" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Empire Strikes Back</v>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
         <v>180</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="D27" s="1">
@@ -3259,11 +3259,11 @@
         <v>83</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.617283950617281</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -3271,15 +3271,15 @@
         <v>7.71278172921803 Less</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>14965</v>
       </c>
       <c r="K27" s="5">
-        <f ca="1">IFERROR(TODAY()-$J27, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>31072</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -3295,7 +3295,7 @@
         <v>41</v>
       </c>
       <c r="P27" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -3308,11 +3308,11 @@
         <v>107</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U27" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
         <v>150</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="D28" s="1">
@@ -3335,11 +3335,11 @@
         <v>21</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -3347,15 +3347,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>17520</v>
       </c>
       <c r="K28" s="5">
-        <f ca="1">IFERROR(TODAY()-$J28, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28517</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -3371,7 +3371,7 @@
         <v>48</v>
       </c>
       <c r="P28" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q28" s="1" t="s">
@@ -3384,11 +3384,11 @@
         <v>111</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U28" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="D29" s="1" t="str">
@@ -3411,11 +3411,11 @@
         <v>21</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="1" t="str">
@@ -3423,15 +3423,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J29, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>NA</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -3447,7 +3447,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
@@ -3460,11 +3460,11 @@
         <v>111</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U29" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
         <v>88</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88</v>
       </c>
       <c r="D30" s="1">
@@ -3487,11 +3487,11 @@
         <v>20</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.826446280991735</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -3499,15 +3499,15 @@
         <v>7.50361939884357 Less</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2920</v>
       </c>
       <c r="K30" s="5">
-        <f ca="1">IFERROR(TODAY()-$J30, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43117</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -3523,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="P30" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q30" s="1" t="s">
@@ -3536,11 +3536,11 @@
         <v>111</v>
       </c>
       <c r="T30" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>*Not Found*</v>
       </c>
       <c r="U30" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>160</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="D31" s="1">
@@ -3563,11 +3563,11 @@
         <v>68</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.562499999999996</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -3575,15 +3575,15 @@
         <v>6.76756567983531 Less</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J31, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>NA</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -3599,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="P31" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -3612,11 +3612,11 @@
         <v>111</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U31" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.93</v>
       </c>
       <c r="D32" s="1">
@@ -3639,11 +3639,11 @@
         <v>89</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>196.25</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.893258879433006</v>
       </c>
       <c r="H32" s="1" t="str">
@@ -3651,15 +3651,15 @@
         <v>9.4368068004023 Less</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33580</v>
       </c>
       <c r="K32" s="5">
-        <f ca="1">IFERROR(TODAY()-$J32, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>12457</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -3675,7 +3675,7 @@
         <v>92</v>
       </c>
       <c r="P32" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q32" s="1" t="s">
@@ -3688,11 +3688,11 @@
         <v>120</v>
       </c>
       <c r="T32" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U32" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
         <v>191</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.91</v>
       </c>
       <c r="D33" s="1">
@@ -3715,11 +3715,11 @@
         <v>90</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>198.5</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.670376360297141</v>
       </c>
       <c r="H33" s="1" t="str">
@@ -3727,15 +3727,15 @@
         <v>8.65968931953817 Less</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J33, "NA")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>NA</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -3751,7 +3751,7 @@
         <v>21</v>
       </c>
       <c r="P33" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="s">
@@ -3764,11 +3764,11 @@
         <v>54</v>
       </c>
       <c r="T33" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U33" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         <v>170</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
       <c r="D34" s="1">
@@ -3791,11 +3791,11 @@
         <v>21</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
@@ -3803,15 +3803,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33215</v>
       </c>
       <c r="K34" s="5">
-        <f ca="1">IFERROR(TODAY()-$J34, "NA")</f>
+        <f t="shared" ref="K34:K65" ca="1" si="12">IFERROR(TODAY()-$J34, "NA")</f>
         <v>12822</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -3827,7 +3827,7 @@
         <v>91</v>
       </c>
       <c r="P34" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q34" s="1" t="s">
@@ -3840,11 +3840,11 @@
         <v>120</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U34" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
         <v>196</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.96</v>
       </c>
       <c r="D35" s="1">
@@ -3867,11 +3867,11 @@
         <v>66</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>145.5</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.180341524364849</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -3879,15 +3879,15 @@
         <v>16.1497241554705 Less</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>18980</v>
       </c>
       <c r="K35" s="5">
-        <f ca="1">IFERROR(TODAY()-$J35, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>27057</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -3903,7 +3903,7 @@
         <v>52</v>
       </c>
       <c r="P35" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q35" s="1" t="s">
@@ -3916,11 +3916,11 @@
         <v>129</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
         <v>224</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="D36" s="1">
@@ -3943,11 +3943,11 @@
         <v>82</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180.75</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.342474489795915</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -3955,15 +3955,15 @@
         <v>16.9875911900394 Less</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J36, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -3979,7 +3979,7 @@
         <v>21</v>
       </c>
       <c r="P36" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q36" s="1" t="s">
@@ -3992,11 +3992,11 @@
         <v>120</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
         <v>206</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.06</v>
       </c>
       <c r="D37" s="1">
@@ -4019,11 +4019,11 @@
         <v>21</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37" s="1" t="str">
@@ -4031,15 +4031,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J37, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -4055,7 +4055,7 @@
         <v>21</v>
       </c>
       <c r="P37" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q37" s="1" t="s">
@@ -4068,11 +4068,11 @@
         <v>120</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
         <v>183</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="D38" s="1">
@@ -4095,11 +4095,11 @@
         <v>21</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="1" t="str">
@@ -4107,15 +4107,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J38, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -4131,7 +4131,7 @@
         <v>21</v>
       </c>
       <c r="P38" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q38" s="1" t="s">
@@ -4144,11 +4144,11 @@
         <v>120</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U38" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
         <v>137</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.37</v>
       </c>
       <c r="D39" s="1">
@@ -4171,11 +4171,11 @@
         <v>21</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -4183,15 +4183,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J39, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -4207,7 +4207,7 @@
         <v>21</v>
       </c>
       <c r="P39" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -4220,11 +4220,11 @@
         <v>137</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U39" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
         <v>112</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="D40" s="1">
@@ -4247,11 +4247,11 @@
         <v>40</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>88.25</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.887755102040813</v>
       </c>
       <c r="H40" s="1" t="str">
@@ -4259,15 +4259,15 @@
         <v>1.44231057779449 Less</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J40, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -4283,7 +4283,7 @@
         <v>21</v>
       </c>
       <c r="P40" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1" t="s">
@@ -4296,11 +4296,11 @@
         <v>120</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U40" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
         <v>183</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="D41" s="1">
@@ -4323,11 +4323,11 @@
         <v>21</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -4335,15 +4335,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>22630</v>
       </c>
       <c r="K41" s="5">
-        <f ca="1">IFERROR(TODAY()-$J41, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>23407</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -4359,7 +4359,7 @@
         <v>62</v>
       </c>
       <c r="P41" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q41" s="1" t="s">
@@ -4372,11 +4372,11 @@
         <v>120</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U41" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
         <v>163</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.63</v>
       </c>
       <c r="D42" s="1">
@@ -4399,11 +4399,11 @@
         <v>21</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
@@ -4411,15 +4411,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>26280</v>
       </c>
       <c r="K42" s="5">
-        <f ca="1">IFERROR(TODAY()-$J42, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>19757</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -4435,7 +4435,7 @@
         <v>72</v>
       </c>
       <c r="P42" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -4448,11 +4448,11 @@
         <v>137</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U42" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -4464,7 +4464,7 @@
         <v>175</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.75</v>
       </c>
       <c r="D43" s="1">
@@ -4475,11 +4475,11 @@
         <v>80</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176.25</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.122448979591837</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -4487,15 +4487,15 @@
         <v>7.20761670024347 Less</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>19710</v>
       </c>
       <c r="K43" s="5">
-        <f ca="1">IFERROR(TODAY()-$J43, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>26327</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -4511,7 +4511,7 @@
         <v>54</v>
       </c>
       <c r="P43" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -4524,11 +4524,11 @@
         <v>120</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U43" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
         <v>180</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="D44" s="1">
@@ -4551,11 +4551,11 @@
         <v>21</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
@@ -4563,15 +4563,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J44, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -4587,7 +4587,7 @@
         <v>21</v>
       </c>
       <c r="P44" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -4600,11 +4600,11 @@
         <v>111</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U44" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Return of the Jedi</v>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
         <v>178</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.78</v>
       </c>
       <c r="D45" s="1">
@@ -4627,11 +4627,11 @@
         <v>55</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>121.25</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.35891932836763</v>
       </c>
       <c r="H45" s="1" t="str">
@@ -4639,15 +4639,15 @@
         <v>15.9711463514677 Less</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>17520</v>
       </c>
       <c r="K45" s="5">
-        <f ca="1">IFERROR(TODAY()-$J45, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>28517</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -4663,7 +4663,7 @@
         <v>48</v>
       </c>
       <c r="P45" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q45" s="1" t="s">
@@ -4676,11 +4676,11 @@
         <v>152</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U45" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
         <v>94</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94</v>
       </c>
       <c r="D46" s="1">
@@ -4703,11 +4703,11 @@
         <v>45</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99.25</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.928021729289277</v>
       </c>
       <c r="H46" s="1" t="str">
@@ -4715,15 +4715,15 @@
         <v>17.597956049454 More</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J46, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L46" s="1" t="s">
@@ -4739,7 +4739,7 @@
         <v>21</v>
       </c>
       <c r="P46" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q46" s="1" t="s">
@@ -4752,11 +4752,11 @@
         <v>120</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U46" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>122</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.22</v>
       </c>
       <c r="D47" s="1">
@@ -4779,11 +4779,11 @@
         <v>21</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="1" t="str">
@@ -4791,15 +4791,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J47, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -4815,7 +4815,7 @@
         <v>21</v>
       </c>
       <c r="P47" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q47" s="1" t="s">
@@ -4828,11 +4828,11 @@
         <v>120</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U47" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>163</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.63</v>
       </c>
       <c r="D48" s="1">
@@ -4855,11 +4855,11 @@
         <v>65</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>143.25</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.464601603372351</v>
       </c>
       <c r="H48" s="1" t="str">
@@ -4867,15 +4867,15 @@
         <v>8.86546407646296 Less</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J48, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -4891,7 +4891,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q48" s="1" t="s">
@@ -4904,11 +4904,11 @@
         <v>120</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
         <v>188</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.88</v>
       </c>
       <c r="D49" s="1">
@@ -4931,11 +4931,11 @@
         <v>84</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>185.25</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.766410140334994</v>
       </c>
       <c r="H49" s="1" t="str">
@@ -4943,15 +4943,15 @@
         <v>9.56365553950031 Less</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>26280</v>
       </c>
       <c r="K49" s="5">
-        <f ca="1">IFERROR(TODAY()-$J49, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>19757</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -4967,7 +4967,7 @@
         <v>72</v>
       </c>
       <c r="P49" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q49" s="1" t="s">
@@ -4980,11 +4980,11 @@
         <v>54</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
         <v>198</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.98</v>
       </c>
       <c r="D50" s="1">
@@ -5007,11 +5007,11 @@
         <v>82</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180.75</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.91623303744516</v>
       </c>
       <c r="H50" s="1" t="str">
@@ -5019,15 +5019,15 @@
         <v>12.4138326423901 Less</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>33580</v>
       </c>
       <c r="K50" s="5">
-        <f ca="1">IFERROR(TODAY()-$J50, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>12457</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -5043,7 +5043,7 @@
         <v>92</v>
       </c>
       <c r="P50" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q50" s="1" t="s">
@@ -5056,11 +5056,11 @@
         <v>54</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>196</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.96</v>
       </c>
       <c r="D51" s="1">
@@ -5083,11 +5083,11 @@
         <v>87</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>191.75</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.646813827571847</v>
       </c>
       <c r="H51" s="1" t="str">
@@ -5095,15 +5095,15 @@
         <v>10.6832518522635 Less</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J51, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -5119,7 +5119,7 @@
         <v>21</v>
       </c>
       <c r="P51" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q51" s="1" t="s">
@@ -5132,11 +5132,11 @@
         <v>54</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
         <v>171</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.71</v>
       </c>
       <c r="D52" s="1">
@@ -5159,11 +5159,11 @@
         <v>21</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
@@ -5171,15 +5171,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J52, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L52" s="1" t="s">
@@ -5195,7 +5195,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q52" s="1" t="s">
@@ -5208,11 +5208,11 @@
         <v>173</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U52" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
         <v>184</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.84</v>
       </c>
       <c r="D53" s="1">
@@ -5235,11 +5235,11 @@
         <v>50</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>110.25</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.768431001890358</v>
       </c>
       <c r="H53" s="1" t="str">
@@ -5247,15 +5247,15 @@
         <v>18.561634677945 Less</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J53, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L53" s="1" t="s">
@@ -5271,7 +5271,7 @@
         <v>21</v>
       </c>
       <c r="P53" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q53" s="1" t="s">
@@ -5284,11 +5284,11 @@
         <v>173</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U53" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
         <v>188</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.88</v>
       </c>
       <c r="D54" s="1">
@@ -5311,11 +5311,11 @@
         <v>21</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
@@ -5323,15 +5323,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J54, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L54" s="1" t="s">
@@ -5347,7 +5347,7 @@
         <v>21</v>
       </c>
       <c r="P54" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1" t="s">
@@ -5360,11 +5360,11 @@
         <v>173</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U54" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
         <v>264</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.64</v>
       </c>
       <c r="D55" s="1">
@@ -5387,11 +5387,11 @@
         <v>21</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" s="1" t="str">
@@ -5399,15 +5399,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J55, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -5423,7 +5423,7 @@
         <v>21</v>
       </c>
       <c r="P55" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q55" s="1" t="s">
@@ -5436,11 +5436,11 @@
         <v>120</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U55" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -5452,7 +5452,7 @@
         <v>188</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.88</v>
       </c>
       <c r="D56" s="1">
@@ -5463,11 +5463,11 @@
         <v>80</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176.25</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.634676324128566</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -5475,15 +5475,15 @@
         <v>10.6953893557067 Less</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8030</v>
       </c>
       <c r="K56" s="5">
-        <f ca="1">IFERROR(TODAY()-$J56, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>38007</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -5499,7 +5499,7 @@
         <v>22</v>
       </c>
       <c r="P56" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -5512,11 +5512,11 @@
         <v>54</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>Revenge of the Sith</v>
       </c>
       <c r="U56" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
         <v>196</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.96</v>
       </c>
       <c r="D57" s="1">
@@ -5539,11 +5539,11 @@
         <v>21</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="1" t="str">
@@ -5551,15 +5551,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J57, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L57" s="1" t="s">
@@ -5575,7 +5575,7 @@
         <v>21</v>
       </c>
       <c r="P57" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57" s="1" t="s">
@@ -5588,11 +5588,11 @@
         <v>129</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U57" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>185</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.85</v>
       </c>
       <c r="D58" s="1">
@@ -5615,11 +5615,11 @@
         <v>85</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>187.5</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.835646457268076</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -5627,15 +5627,15 @@
         <v>8.49441922256723 Less</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J58, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L58" s="1" t="s">
@@ -5651,7 +5651,7 @@
         <v>21</v>
       </c>
       <c r="P58" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q58" s="1" t="s">
@@ -5664,11 +5664,11 @@
         <v>189</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U58" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5680,7 +5680,7 @@
         <v>157</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.57</v>
       </c>
       <c r="D59" s="1">
@@ -5691,11 +5691,11 @@
         <v>21</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -5703,15 +5703,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J59, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L59" s="1" t="s">
@@ -5727,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="P59" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q59" s="1" t="s">
@@ -5740,11 +5740,11 @@
         <v>189</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U59" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
         <v>183</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="D60" s="1">
@@ -5767,11 +5767,11 @@
         <v>21</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -5779,15 +5779,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>29930</v>
       </c>
       <c r="K60" s="5">
-        <f ca="1">IFERROR(TODAY()-$J60, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>16107</v>
       </c>
       <c r="L60" s="1" t="s">
@@ -5803,7 +5803,7 @@
         <v>82</v>
       </c>
       <c r="P60" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q60" s="1" t="s">
@@ -5816,11 +5816,11 @@
         <v>189</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U60" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
         <v>183</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="D61" s="1">
@@ -5843,11 +5843,11 @@
         <v>80</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176.25</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.888440980620498</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -5855,15 +5855,15 @@
         <v>9.44162469921481 Less</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J61, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L61" s="1" t="s">
@@ -5879,7 +5879,7 @@
         <v>21</v>
       </c>
       <c r="P61" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q61" s="1" t="s">
@@ -5892,11 +5892,11 @@
         <v>195</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U61" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
         <v>170</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
       <c r="D62" s="1">
@@ -5919,11 +5919,11 @@
         <v>56.2</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.446366782006923</v>
       </c>
       <c r="H62" s="1" t="str">
@@ -5931,15 +5931,15 @@
         <v>13.8836988978284 Less</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>21170</v>
       </c>
       <c r="K62" s="5">
-        <f ca="1">IFERROR(TODAY()-$J62, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>24867</v>
       </c>
       <c r="L62" s="1" t="s">
@@ -5955,7 +5955,7 @@
         <v>58</v>
       </c>
       <c r="P62" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -5968,11 +5968,11 @@
         <v>195</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U62" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
         <v>166</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.66</v>
       </c>
       <c r="D63" s="1">
@@ -5995,11 +5995,11 @@
         <v>50</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>110.25</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.144868631151112</v>
       </c>
       <c r="H63" s="1" t="str">
@@ -6007,15 +6007,15 @@
         <v>15.1851970486842 Less</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>14600</v>
       </c>
       <c r="K63" s="5">
-        <f ca="1">IFERROR(TODAY()-$J63, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>31437</v>
       </c>
       <c r="L63" s="1" t="s">
@@ -6031,7 +6031,7 @@
         <v>40</v>
       </c>
       <c r="P63" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
@@ -6044,11 +6044,11 @@
         <v>189</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>The Phantom Menace</v>
       </c>
       <c r="U63" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
         <v>165</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.65</v>
       </c>
       <c r="D64" s="1">
@@ -6071,11 +6071,11 @@
         <v>21</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64" s="1" t="str">
@@ -6083,15 +6083,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>NA</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J64, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>NA</v>
       </c>
       <c r="L64" s="1" t="s">
@@ -6107,7 +6107,7 @@
         <v>21</v>
       </c>
       <c r="P64" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q64" s="1" t="s">
@@ -6120,11 +6120,11 @@
         <v>189</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U64" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
         <v>193</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.93</v>
       </c>
       <c r="D65" s="1">
@@ -6147,11 +6147,11 @@
         <v>80</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>176.25</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.477086633198208</v>
       </c>
       <c r="H65" s="1" t="str">
@@ -6159,15 +6159,15 @@
         <v>11.8529790466371 Less</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>37230</v>
       </c>
       <c r="K65" s="5">
-        <f ca="1">IFERROR(TODAY()-$J65, "NA")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>8807</v>
       </c>
       <c r="L65" s="1" t="s">
@@ -6183,7 +6183,7 @@
         <v>102</v>
       </c>
       <c r="P65" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q65" s="1" t="s">
@@ -6196,11 +6196,11 @@
         <v>195</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U65" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6212,22 +6212,22 @@
         <v>191</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.91</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D88" si="11">IFERROR(FLOOR(CONVERT(B66, "cm", "in"), 0.5), "NA")</f>
+        <f t="shared" ref="D66:D88" si="13">IFERROR(FLOOR(CONVERT(B66, "cm", "in"), 0.5), "NA")</f>
         <v>75</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" ref="G66:G88" si="12">IF(C66="NA",0,IF(E66="NA",0,E66/(C66^2)))</f>
+        <f t="shared" ref="G66:G88" si="14">IF(C66="NA",0,IF(E66="NA",0,E66/(C66^2)))</f>
         <v>0</v>
       </c>
       <c r="H66" s="1" t="str">
@@ -6235,15 +6235,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J66" s="4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>24455</v>
       </c>
       <c r="K66" s="5">
-        <f ca="1">IFERROR(TODAY()-$J66, "NA")</f>
+        <f t="shared" ref="K66:K88" ca="1" si="15">IFERROR(TODAY()-$J66, "NA")</f>
         <v>21582</v>
       </c>
       <c r="L66" s="1" t="s">
@@ -6259,7 +6259,7 @@
         <v>67</v>
       </c>
       <c r="P66" s="4" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q66" s="1" t="s">
@@ -6272,11 +6272,11 @@
         <v>195</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>A New Hope</v>
       </c>
       <c r="U66" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6288,22 +6288,22 @@
         <v>183</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.83</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="E67" s="1">
         <v>79</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>174.25</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.589835468362743</v>
       </c>
       <c r="H67" s="1" t="str">
@@ -6311,15 +6311,15 @@
         <v>9.74023021147256 Less</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" ref="I67:I88" si="13">RANK($G67,$G$2:$G$88)</f>
+        <f t="shared" ref="I67:I88" si="16">RANK($G67,$G$2:$G$88)</f>
         <v>37</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" ref="J67:J88" ca="1" si="14">IFERROR((YEAR(TODAY())-(YEAR(TODAY())-$O67))*365, "NA")</f>
+        <f t="shared" ref="J67:J88" ca="1" si="17">IFERROR((YEAR(TODAY())-(YEAR(TODAY())-$O67))*365, "NA")</f>
         <v>24090</v>
       </c>
       <c r="K67" s="5">
-        <f ca="1">IFERROR(TODAY()-$J67, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>21947</v>
       </c>
       <c r="L67" s="1" t="s">
@@ -6335,7 +6335,7 @@
         <v>66</v>
       </c>
       <c r="P67" s="4" t="b">
-        <f t="shared" ref="P67:P88" si="15">ISNUMBER($O67)</f>
+        <f t="shared" ref="P67:P88" si="18">ISNUMBER($O67)</f>
         <v>1</v>
       </c>
       <c r="Q67" s="1" t="s">
@@ -6348,11 +6348,11 @@
         <v>189</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T88" ca="1" si="16">_xlfn.XLOOKUP(J67, $C$92:$C$100, $A$92:$A$100, "*Not Found*",-1)</f>
+        <f t="shared" ref="T67:T88" ca="1" si="19">_xlfn.XLOOKUP(J67, $C$92:$C$100, $A$92:$A$100, "*Not Found*",-1)</f>
         <v>A New Hope</v>
       </c>
       <c r="U67" s="4" t="str">
-        <f t="shared" ref="U67:U88" si="17">TRIM(IFERROR(LEFT(S67, SEARCH(",",S67)-1), S67))</f>
+        <f t="shared" ref="U67:U88" si="20">TRIM(IFERROR(LEFT(S67, SEARCH(",",S67)-1), S67))</f>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6364,22 +6364,22 @@
         <v>168</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.68</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="E68" s="1">
         <v>55</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F88" si="18">IFERROR(MROUND(CONVERT(E68, "kg", "lbm"), 0.25), "NA")</f>
+        <f t="shared" ref="F68:F88" si="21">IFERROR(MROUND(CONVERT(E68, "kg", "lbm"), 0.25), "NA")</f>
         <v>121.25</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.486961451247168</v>
       </c>
       <c r="H68" s="1" t="str">
@@ -6387,15 +6387,15 @@
         <v>13.8431042285881 Less</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J68, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L68" s="1" t="s">
@@ -6411,7 +6411,7 @@
         <v>21</v>
       </c>
       <c r="P68" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -6424,11 +6424,11 @@
         <v>189</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U68" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6440,22 +6440,22 @@
         <v>198</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.98</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>77.5</v>
       </c>
       <c r="E69" s="1">
         <v>102</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>224.75</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.017753290480563</v>
       </c>
       <c r="H69" s="1" t="str">
@@ -6463,15 +6463,15 @@
         <v>7.31231238935474 Less</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J69, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L69" s="1" t="s">
@@ -6487,7 +6487,7 @@
         <v>21</v>
       </c>
       <c r="P69" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q69" s="1" t="s">
@@ -6500,11 +6500,11 @@
         <v>189</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U69" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6516,22 +6516,22 @@
         <v>229</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.29</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="E70" s="1">
         <v>88</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>194</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.780763143342039</v>
       </c>
       <c r="H70" s="1" t="str">
@@ -6539,15 +6539,15 @@
         <v>16.5493025364933 Less</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J70, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L70" s="1" t="s">
@@ -6563,7 +6563,7 @@
         <v>21</v>
       </c>
       <c r="P70" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q70" s="1" t="s">
@@ -6576,11 +6576,11 @@
         <v>189</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U70" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6592,22 +6592,22 @@
         <v>213</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.13</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>83.5</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -6615,15 +6615,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J71, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L71" s="1" t="s">
@@ -6639,7 +6639,7 @@
         <v>21</v>
       </c>
       <c r="P71" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q71" s="1" t="s">
@@ -6652,11 +6652,11 @@
         <v>189</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U71" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6668,22 +6668,22 @@
         <v>167</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.67</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65.5</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -6691,15 +6691,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J72, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L72" s="1" t="s">
@@ -6715,7 +6715,7 @@
         <v>21</v>
       </c>
       <c r="P72" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q72" s="1" t="s">
@@ -6728,11 +6728,11 @@
         <v>189</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U72" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6744,22 +6744,22 @@
         <v>79</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.79</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="E73" s="1">
         <v>15</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.034609838166958</v>
       </c>
       <c r="H73" s="1" t="str">
@@ -6767,15 +6767,15 @@
         <v>9.29545584166835 Less</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J73, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L73" s="1" t="s">
@@ -6791,7 +6791,7 @@
         <v>21</v>
       </c>
       <c r="P73" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q73" s="1" t="s">
@@ -6804,11 +6804,11 @@
         <v>120</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U73" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>The Phantom Menace</v>
       </c>
     </row>
@@ -6820,22 +6820,22 @@
         <v>96</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37.5</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
@@ -6843,15 +6843,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K74" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J74, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L74" s="1" t="s">
@@ -6867,7 +6867,7 @@
         <v>21</v>
       </c>
       <c r="P74" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q74" s="1" t="s">
@@ -6880,11 +6880,11 @@
         <v>195</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U74" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6896,22 +6896,22 @@
         <v>193</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.93</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75.5</v>
       </c>
       <c r="E75" s="1">
         <v>48</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>105.75</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12.886251979918924</v>
       </c>
       <c r="H75" s="1" t="str">
@@ -6919,15 +6919,15 @@
         <v>20.4438136999164 Less</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>59</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J75, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L75" s="1" t="s">
@@ -6943,7 +6943,7 @@
         <v>21</v>
       </c>
       <c r="P75" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q75" s="1" t="s">
@@ -6956,11 +6956,11 @@
         <v>189</v>
       </c>
       <c r="T75" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U75" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -6972,22 +6972,22 @@
         <v>191</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.91</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H76" s="1" t="str">
@@ -6995,15 +6995,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K76" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J76, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L76" s="1" t="s">
@@ -7019,7 +7019,7 @@
         <v>21</v>
       </c>
       <c r="P76" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q76" s="1" t="s">
@@ -7032,11 +7032,11 @@
         <v>189</v>
       </c>
       <c r="T76" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U76" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -7048,22 +7048,22 @@
         <v>178</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ref="C77:C88" si="19">IFERROR(B77/100, "NA")</f>
+        <f t="shared" ref="C77:C88" si="22">IFERROR(B77/100, "NA")</f>
         <v>1.78</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="E77" s="1">
         <v>57</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>125.75</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.99015275849009</v>
       </c>
       <c r="H77" s="1" t="str">
@@ -7071,15 +7071,15 @@
         <v>15.3399129213452 Less</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K77" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J77, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L77" s="1" t="s">
@@ -7095,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="P77" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q77" s="1" t="s">
@@ -7108,11 +7108,11 @@
         <v>195</v>
       </c>
       <c r="T77" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U77" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -7124,22 +7124,22 @@
         <v>216</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.16</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="E78" s="1">
         <v>159</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>350.5</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>34.079218106995881</v>
       </c>
       <c r="H78" s="1" t="str">
@@ -7147,15 +7147,15 @@
         <v>0.749152427160574 More</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J78, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L78" s="1" t="s">
@@ -7171,7 +7171,7 @@
         <v>21</v>
       </c>
       <c r="P78" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q78" s="1" t="s">
@@ -7184,11 +7184,11 @@
         <v>242</v>
       </c>
       <c r="T78" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U78" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -7200,22 +7200,22 @@
         <v>234</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.34</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="E79" s="1">
         <v>136</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>299.75</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24.837460734896638</v>
       </c>
       <c r="H79" s="1" t="str">
@@ -7223,15 +7223,15 @@
         <v>8.49260494493867 Less</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="J79" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J79, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L79" s="1" t="s">
@@ -7247,7 +7247,7 @@
         <v>21</v>
       </c>
       <c r="P79" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q79" s="1" t="s">
@@ -7260,11 +7260,11 @@
         <v>242</v>
       </c>
       <c r="T79" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U79" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -7276,22 +7276,22 @@
         <v>188</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.88</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="E80" s="1">
         <v>79</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>174.25</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22.351742870076958</v>
       </c>
       <c r="H80" s="1" t="str">
@@ -7299,15 +7299,15 @@
         <v>10.9783228097583 Less</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J80, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L80" s="1" t="s">
@@ -7323,7 +7323,7 @@
         <v>21</v>
       </c>
       <c r="P80" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q80" s="1" t="s">
@@ -7336,11 +7336,11 @@
         <v>58</v>
       </c>
       <c r="T80" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U80" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -7352,22 +7352,22 @@
         <v>178</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.78</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="E81" s="1">
         <v>48</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>105.75</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15.149602322939023</v>
       </c>
       <c r="H81" s="1" t="str">
@@ -7375,15 +7375,15 @@
         <v>18.1804633568963 Less</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="J81" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J81, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L81" s="1" t="s">
@@ -7399,7 +7399,7 @@
         <v>21</v>
       </c>
       <c r="P81" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q81" s="1" t="s">
@@ -7412,11 +7412,11 @@
         <v>195</v>
       </c>
       <c r="T81" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U81" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -7428,22 +7428,22 @@
         <v>206</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.06</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="E82" s="1">
         <v>80</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>176.25</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.851918182675089</v>
       </c>
       <c r="H82" s="1" t="str">
@@ -7451,15 +7451,15 @@
         <v>14.4781474971602 Less</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K82" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J82, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L82" s="1" t="s">
@@ -7475,7 +7475,7 @@
         <v>21</v>
       </c>
       <c r="P82" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q82" s="1" t="s">
@@ -7488,11 +7488,11 @@
         <v>242</v>
       </c>
       <c r="T82" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U82" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Revenge of the Sith</v>
       </c>
     </row>
@@ -7504,22 +7504,22 @@
         <v>21</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H83" s="1" t="str">
@@ -7527,15 +7527,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K83" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J83, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L83" s="1" t="s">
@@ -7551,7 +7551,7 @@
         <v>21</v>
       </c>
       <c r="P83" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q83" s="1" t="s">
@@ -7564,11 +7564,11 @@
         <v>251</v>
       </c>
       <c r="T83" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U83" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -7580,22 +7580,22 @@
         <v>21</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H84" s="1" t="str">
@@ -7603,15 +7603,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K84" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J84, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L84" s="1" t="s">
@@ -7627,7 +7627,7 @@
         <v>21</v>
       </c>
       <c r="P84" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q84" s="1" t="s">
@@ -7640,11 +7640,11 @@
         <v>251</v>
       </c>
       <c r="T84" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U84" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -7656,22 +7656,22 @@
         <v>21</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H85" s="1" t="str">
@@ -7679,15 +7679,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K85" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J85, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L85" s="1" t="s">
@@ -7703,7 +7703,7 @@
         <v>21</v>
       </c>
       <c r="P85" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q85" s="1" t="s">
@@ -7716,11 +7716,11 @@
         <v>251</v>
       </c>
       <c r="T85" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U85" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -7732,22 +7732,22 @@
         <v>21</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H86" s="1" t="str">
@@ -7755,15 +7755,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K86" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J86, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L86" s="1" t="s">
@@ -7779,7 +7779,7 @@
         <v>21</v>
       </c>
       <c r="P86" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1" t="s">
@@ -7792,11 +7792,11 @@
         <v>251</v>
       </c>
       <c r="T86" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U86" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -7808,22 +7808,22 @@
         <v>21</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>NA</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>NA</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H87" s="1" t="str">
@@ -7831,15 +7831,15 @@
         <v>33.3300656798353 Less</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>NA</v>
       </c>
       <c r="K87" s="5" t="str">
-        <f ca="1">IFERROR(TODAY()-$J87, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>NA</v>
       </c>
       <c r="L87" s="1" t="s">
@@ -7855,7 +7855,7 @@
         <v>21</v>
       </c>
       <c r="P87" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q87" s="1" t="s">
@@ -7868,11 +7868,11 @@
         <v>251</v>
       </c>
       <c r="T87" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>A New Hope</v>
       </c>
       <c r="U87" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>The Force Awakens</v>
       </c>
     </row>
@@ -7884,22 +7884,22 @@
         <v>165</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.65</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>64.5</v>
       </c>
       <c r="E88" s="1">
         <v>45</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>99.25</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.528925619834713</v>
       </c>
       <c r="H88" s="1" t="str">
@@ -7907,15 +7907,15 @@
         <v>16.8011400600006 Less</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>55</v>
       </c>
       <c r="J88" s="4">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>16790</v>
       </c>
       <c r="K88" s="5">
-        <f ca="1">IFERROR(TODAY()-$J88, "NA")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>29247</v>
       </c>
       <c r="L88" s="1" t="s">
@@ -7931,7 +7931,7 @@
         <v>46</v>
       </c>
       <c r="P88" s="4" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Q88" s="1" t="s">
@@ -7944,11 +7944,11 @@
         <v>54</v>
       </c>
       <c r="T88" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>The Empire Strikes Back</v>
       </c>
       <c r="U88" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>Attack of the Clones</v>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
         <v>37392</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C98" ca="1" si="20">DATEDIF($B93, TODAY(), "D")</f>
+        <f t="shared" ref="C93:C98" ca="1" si="23">DATEDIF($B93, TODAY(), "D")</f>
         <v>8645</v>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
         <v>38491</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v>7546</v>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
         <v>28270</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v>17767</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
         <v>29362</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v>16675</v>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
         <v>30461</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v>15576</v>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
         <v>42356</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v>3681</v>
       </c>
     </row>
@@ -8960,8 +8960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2BC748-F643-4C71-8674-6F8571EF4D1F}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8988,9 +8988,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:C82">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(starwars!A2:B88, starwars!B2:B88&lt;&gt;"NA"),2)</f>
-        <v>Yoda</v>
+      <c r="B2" t="s">
+        <v>81</v>
       </c>
       <c r="C2">
         <v>66</v>
@@ -9000,8 +8999,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Ratts Tyerell</v>
+      <c r="B3" t="s">
+        <v>219</v>
       </c>
       <c r="C3">
         <v>79</v>
@@ -9016,8 +9015,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Wicket Systri Warrick</v>
+      <c r="B4" t="s">
+        <v>113</v>
       </c>
       <c r="C4">
         <v>88</v>
@@ -9036,8 +9035,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Dud Bolt</v>
+      <c r="B5" t="s">
+        <v>153</v>
       </c>
       <c r="C5">
         <v>94</v>
@@ -9055,8 +9054,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>R2-D2</v>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6">
         <v>96</v>
@@ -9067,8 +9066,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>R4-P17</v>
+      <c r="B7" t="s">
+        <v>223</v>
       </c>
       <c r="C7">
         <v>96</v>
@@ -9078,8 +9077,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>R5-D4</v>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="C8">
         <v>97</v>
@@ -9090,8 +9089,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>Sebulba</v>
+      <c r="B9" t="s">
+        <v>138</v>
       </c>
       <c r="C9">
         <v>112</v>
@@ -9106,8 +9105,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>Gasgano</v>
+      <c r="B10" t="s">
+        <v>156</v>
       </c>
       <c r="C10">
         <v>122</v>
@@ -9126,8 +9125,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Watto</v>
+      <c r="B11" t="s">
+        <v>133</v>
       </c>
       <c r="C11">
         <v>137</v>
@@ -9137,8 +9136,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>Leia Organa</v>
+      <c r="B12" t="s">
+        <v>35</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -9148,8 +9147,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>Mon Mothma</v>
+      <c r="B13" t="s">
+        <v>108</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -9159,8 +9158,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>Cordé</v>
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
       <c r="C14">
         <v>157</v>
@@ -9170,8 +9169,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>Nien Nunb</v>
+      <c r="B15" t="s">
+        <v>116</v>
       </c>
       <c r="C15">
         <v>160</v>
@@ -9181,8 +9180,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>Shmi Skywalker</v>
+      <c r="B16" t="s">
+        <v>143</v>
       </c>
       <c r="C16">
         <v>163</v>
@@ -9192,8 +9191,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>Ben Quadinaros</v>
+      <c r="B17" t="s">
+        <v>159</v>
       </c>
       <c r="C17">
         <v>163</v>
@@ -9204,8 +9203,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>Beru Whitesun lars</v>
+      <c r="B18" t="s">
+        <v>43</v>
       </c>
       <c r="C18">
         <v>165</v>
@@ -9215,8 +9214,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>Dormé</v>
+      <c r="B19" t="s">
+        <v>200</v>
       </c>
       <c r="C19">
         <v>165</v>
@@ -9226,8 +9225,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>Padmé Amidala</v>
+      <c r="B20" t="s">
+        <v>256</v>
       </c>
       <c r="C20">
         <v>165</v>
@@ -9237,8 +9236,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>Barriss Offee</v>
+      <c r="B21" t="s">
+        <v>199</v>
       </c>
       <c r="C21">
         <v>166</v>
@@ -9248,8 +9247,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>C-3PO</v>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
       <c r="C22">
         <v>167</v>
@@ -9259,8 +9258,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <v>Jocasta Nu</v>
+      <c r="B23" t="s">
+        <v>218</v>
       </c>
       <c r="C23">
         <v>167</v>
@@ -9270,8 +9269,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <v>Zam Wesell</v>
+      <c r="B24" t="s">
+        <v>207</v>
       </c>
       <c r="C24">
         <v>168</v>
@@ -9281,8 +9280,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <v>Wedge Antilles</v>
+      <c r="B25" t="s">
+        <v>76</v>
       </c>
       <c r="C25">
         <v>170</v>
@@ -9292,8 +9291,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <v>Palpatine</v>
+      <c r="B26" t="s">
+        <v>84</v>
       </c>
       <c r="C26">
         <v>170</v>
@@ -9303,8 +9302,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>Finis Valorum</v>
+      <c r="B27" t="s">
+        <v>125</v>
       </c>
       <c r="C27">
         <v>170</v>
@@ -9314,8 +9313,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="str">
-        <v>Luminara Unduli</v>
+      <c r="B28" t="s">
+        <v>196</v>
       </c>
       <c r="C28">
         <v>170</v>
@@ -9325,8 +9324,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="str">
-        <v>Eeth Koth</v>
+      <c r="B29" t="s">
+        <v>171</v>
       </c>
       <c r="C29">
         <v>171</v>
@@ -9336,8 +9335,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <v>Luke Skywalker</v>
+      <c r="B30" t="s">
+        <v>13</v>
       </c>
       <c r="C30">
         <v>172</v>
@@ -9347,8 +9346,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="str">
-        <v>Greedo</v>
+      <c r="B31" t="s">
+        <v>66</v>
       </c>
       <c r="C31">
         <v>173</v>
@@ -9358,8 +9357,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <v>Jabba Desilijic Tiure</v>
+      <c r="B32" t="s">
+        <v>70</v>
       </c>
       <c r="C32">
         <v>175</v>
@@ -9369,8 +9368,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="str">
-        <v>Lobot</v>
+      <c r="B33" t="s">
+        <v>101</v>
       </c>
       <c r="C33">
         <v>175</v>
@@ -9380,8 +9379,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="str">
-        <v>Darth Maul</v>
+      <c r="B34" t="s">
+        <v>144</v>
       </c>
       <c r="C34">
         <v>175</v>
@@ -9391,8 +9390,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="str">
-        <v>Lando Calrissian</v>
+      <c r="B35" t="s">
+        <v>97</v>
       </c>
       <c r="C35">
         <v>177</v>
@@ -9402,8 +9401,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="str">
-        <v>Owen Lars</v>
+      <c r="B36" t="s">
+        <v>40</v>
       </c>
       <c r="C36">
         <v>178</v>
@@ -9413,8 +9412,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="str">
-        <v>Ayla Secura</v>
+      <c r="B37" t="s">
+        <v>151</v>
       </c>
       <c r="C37">
         <v>178</v>
@@ -9424,8 +9423,8 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="str">
-        <v>Shaak Ti</v>
+      <c r="B38" t="s">
+        <v>233</v>
       </c>
       <c r="C38">
         <v>178</v>
@@ -9435,8 +9434,8 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="str">
-        <v>Sly Moore</v>
+      <c r="B39" t="s">
+        <v>245</v>
       </c>
       <c r="C39">
         <v>178</v>
@@ -9446,8 +9445,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="str">
-        <v>Wilhuff Tarkin</v>
+      <c r="B40" t="s">
+        <v>55</v>
       </c>
       <c r="C40">
         <v>180</v>
@@ -9457,8 +9456,8 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="str">
-        <v>Han Solo</v>
+      <c r="B41" t="s">
+        <v>63</v>
       </c>
       <c r="C41">
         <v>180</v>
@@ -9468,8 +9467,8 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="str">
-        <v>Jek Tono Porkins</v>
+      <c r="B42" t="s">
+        <v>79</v>
       </c>
       <c r="C42">
         <v>180</v>
@@ -9479,8 +9478,8 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="str">
-        <v>Ackbar</v>
+      <c r="B43" t="s">
+        <v>103</v>
       </c>
       <c r="C43">
         <v>180</v>
@@ -9490,8 +9489,8 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="str">
-        <v>Bib Fortuna</v>
+      <c r="B44" t="s">
+        <v>147</v>
       </c>
       <c r="C44">
         <v>180</v>
@@ -9501,8 +9500,8 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="str">
-        <v>Obi-Wan Kenobi</v>
+      <c r="B45" t="s">
+        <v>49</v>
       </c>
       <c r="C45">
         <v>182</v>
@@ -9512,8 +9511,8 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="str">
-        <v>Biggs Darklighter</v>
+      <c r="B46" t="s">
+        <v>47</v>
       </c>
       <c r="C46">
         <v>183</v>
@@ -9523,8 +9522,8 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="str">
-        <v>Boba Fett</v>
+      <c r="B47" t="s">
+        <v>88</v>
       </c>
       <c r="C47">
         <v>183</v>
@@ -9534,8 +9533,8 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="str">
-        <v>Ric Olié</v>
+      <c r="B48" t="s">
+        <v>132</v>
       </c>
       <c r="C48">
         <v>183</v>
@@ -9545,8 +9544,8 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="str">
-        <v>Quarsh Panaka</v>
+      <c r="B49" t="s">
+        <v>142</v>
       </c>
       <c r="C49">
         <v>183</v>
@@ -9556,8 +9555,8 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="str">
-        <v>Cliegg Lars</v>
+      <c r="B50" t="s">
+        <v>191</v>
       </c>
       <c r="C50">
         <v>183</v>
@@ -9567,8 +9566,8 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="str">
-        <v>Poggle the Lesser</v>
+      <c r="B51" t="s">
+        <v>192</v>
       </c>
       <c r="C51">
         <v>183</v>
@@ -9578,8 +9577,8 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="str">
-        <v>Jango Fett</v>
+      <c r="B52" t="s">
+        <v>205</v>
       </c>
       <c r="C52">
         <v>183</v>
@@ -9589,8 +9588,8 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="str">
-        <v>Adi Gallia</v>
+      <c r="B53" t="s">
+        <v>174</v>
       </c>
       <c r="C53">
         <v>184</v>
@@ -9600,8 +9599,8 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="str">
-        <v>Gregar Typho</v>
+      <c r="B54" t="s">
+        <v>188</v>
       </c>
       <c r="C54">
         <v>185</v>
@@ -9611,8 +9610,8 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="str">
-        <v>Anakin Skywalker</v>
+      <c r="B55" t="s">
+        <v>53</v>
       </c>
       <c r="C55">
         <v>188</v>
@@ -9622,8 +9621,8 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="str">
-        <v>Mace Windu</v>
+      <c r="B56" t="s">
+        <v>163</v>
       </c>
       <c r="C56">
         <v>188</v>
@@ -9633,8 +9632,8 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="str">
-        <v>Saesee Tiin</v>
+      <c r="B57" t="s">
+        <v>176</v>
       </c>
       <c r="C57">
         <v>188</v>
@@ -9644,8 +9643,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="str">
-        <v>Plo Koon</v>
+      <c r="B58" t="s">
+        <v>182</v>
       </c>
       <c r="C58">
         <v>188</v>
@@ -9655,8 +9654,8 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="str">
-        <v>Raymus Antilles</v>
+      <c r="B59" t="s">
+        <v>244</v>
       </c>
       <c r="C59">
         <v>188</v>
@@ -9666,8 +9665,8 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="str">
-        <v>Bossk</v>
+      <c r="B60" t="s">
+        <v>94</v>
       </c>
       <c r="C60">
         <v>190</v>
@@ -9677,8 +9676,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="str">
-        <v>Nute Gunray</v>
+      <c r="B61" t="s">
+        <v>121</v>
       </c>
       <c r="C61">
         <v>191</v>
@@ -9688,8 +9687,8 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="str">
-        <v>Bail Prestor Organa</v>
+      <c r="B62" t="s">
+        <v>203</v>
       </c>
       <c r="C62">
         <v>191</v>
@@ -9699,8 +9698,8 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="str">
-        <v>San Hill</v>
+      <c r="B63" t="s">
+        <v>230</v>
       </c>
       <c r="C63">
         <v>191</v>
@@ -9710,8 +9709,8 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="str">
-        <v>Qui-Gon Jinn</v>
+      <c r="B64" t="s">
+        <v>119</v>
       </c>
       <c r="C64">
         <v>193</v>
@@ -9721,8 +9720,8 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="str">
-        <v>Dooku</v>
+      <c r="B65" t="s">
+        <v>201</v>
       </c>
       <c r="C65">
         <v>193</v>
@@ -9732,8 +9731,8 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="str">
-        <v>Wat Tambor</v>
+      <c r="B66" t="s">
+        <v>226</v>
       </c>
       <c r="C66">
         <v>193</v>
@@ -9743,8 +9742,8 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="str">
-        <v>Jar Jar Binks</v>
+      <c r="B67" t="s">
+        <v>127</v>
       </c>
       <c r="C67">
         <v>196</v>
@@ -9754,8 +9753,8 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="str">
-        <v>Kit Fisto</v>
+      <c r="B68" t="s">
+        <v>168</v>
       </c>
       <c r="C68">
         <v>196</v>
@@ -9765,8 +9764,8 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="str">
-        <v>Mas Amedda</v>
+      <c r="B69" t="s">
+        <v>185</v>
       </c>
       <c r="C69">
         <v>196</v>
@@ -9776,8 +9775,8 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="str">
-        <v>Ki-Adi-Mundi</v>
+      <c r="B70" t="s">
+        <v>165</v>
       </c>
       <c r="C70">
         <v>198</v>
@@ -9787,8 +9786,8 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="str">
-        <v>Dexter Jettster</v>
+      <c r="B71" t="s">
+        <v>212</v>
       </c>
       <c r="C71">
         <v>198</v>
@@ -9798,8 +9797,8 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="str">
-        <v>IG-88</v>
+      <c r="B72" t="s">
+        <v>91</v>
       </c>
       <c r="C72">
         <v>200</v>
@@ -9809,8 +9808,8 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="str">
-        <v>Darth Vader</v>
+      <c r="B73" t="s">
+        <v>31</v>
       </c>
       <c r="C73">
         <v>202</v>
@@ -9820,8 +9819,8 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="str">
-        <v>Rugor Nass</v>
+      <c r="B74" t="s">
+        <v>131</v>
       </c>
       <c r="C74">
         <v>206</v>
@@ -9831,8 +9830,8 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="str">
-        <v>Tion Medon</v>
+      <c r="B75" t="s">
+        <v>247</v>
       </c>
       <c r="C75">
         <v>206</v>
@@ -9842,8 +9841,8 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="str">
-        <v>Taun We</v>
+      <c r="B76" t="s">
+        <v>217</v>
       </c>
       <c r="C76">
         <v>213</v>
@@ -9853,8 +9852,8 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="str">
-        <v>Grievous</v>
+      <c r="B77" t="s">
+        <v>237</v>
       </c>
       <c r="C77">
         <v>216</v>
@@ -9864,8 +9863,8 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="str">
-        <v>Roos Tarpals</v>
+      <c r="B78" t="s">
+        <v>130</v>
       </c>
       <c r="C78">
         <v>224</v>
@@ -9875,8 +9874,8 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="str">
-        <v>Chewbacca</v>
+      <c r="B79" t="s">
+        <v>59</v>
       </c>
       <c r="C79">
         <v>228</v>
@@ -9886,8 +9885,8 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="str">
-        <v>Lama Su</v>
+      <c r="B80" t="s">
+        <v>215</v>
       </c>
       <c r="C80">
         <v>229</v>
@@ -9897,8 +9896,8 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="str">
-        <v>Tarfful</v>
+      <c r="B81" t="s">
+        <v>243</v>
       </c>
       <c r="C81">
         <v>234</v>
@@ -9908,8 +9907,8 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="str">
-        <v>Yarael Poof</v>
+      <c r="B82" t="s">
+        <v>179</v>
       </c>
       <c r="C82">
         <v>264</v>

--- a/starwars_Ch6_max.xlsx
+++ b/starwars_Ch6_max.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BolognaColonel\workspace\excel\data\starwars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF22CB2-4D6F-4CC2-AF6E-753452D7CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EF82CF-5521-441D-9DF8-8E16F3B94559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19230" yWindow="75" windowWidth="19095" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="301">
   <si>
     <t>name</t>
   </si>
@@ -942,6 +942,27 @@
   </si>
   <si>
     <t>With the functions</t>
+  </si>
+  <si>
+    <t>height_freq</t>
+  </si>
+  <si>
+    <t>diff_mean</t>
+  </si>
+  <si>
+    <t>diff_mean_sqd</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
+  <si>
+    <t>90th Percentile</t>
+  </si>
+  <si>
+    <t>1st Quartile</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1010,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,6 +1029,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1021,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1032,6 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,7 +1408,7 @@
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:K33" ca="1" si="2">IFERROR(TODAY()-$J2, "NA")</f>
-        <v>39102</v>
+        <v>39103</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>14</v>
@@ -1456,7 +1484,7 @@
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5157</v>
+        <v>5158</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
@@ -1532,7 +1560,7 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>33992</v>
+        <v>33993</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>21</v>
@@ -1608,7 +1636,7 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>30743.499999999967</v>
+        <v>30744.499999999967</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>32</v>
@@ -1684,7 +1712,7 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>39102</v>
+        <v>39103</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>36</v>
@@ -1760,7 +1788,7 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27057</v>
+        <v>27058</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>41</v>
@@ -1836,7 +1864,7 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>28882</v>
+        <v>28883</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>36</v>
@@ -1988,7 +2016,7 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>37277</v>
+        <v>37278</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>48</v>
@@ -2064,7 +2092,7 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>25232</v>
+        <v>25233</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>50</v>
@@ -2140,7 +2168,7 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>30743.499999999967</v>
+        <v>30744.499999999967</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>14</v>
@@ -2216,7 +2244,7 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>22677</v>
+        <v>22678</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>56</v>
@@ -2292,7 +2320,7 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-26963</v>
+        <v>-26962</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>36</v>
@@ -2368,7 +2396,7 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>35452</v>
+        <v>35453</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>36</v>
@@ -2444,7 +2472,7 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>29977</v>
+        <v>29978</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>21</v>
@@ -2520,7 +2548,7 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-172963</v>
+        <v>-172962</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>21</v>
@@ -2596,7 +2624,7 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38372</v>
+        <v>38373</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>36</v>
@@ -2748,7 +2776,7 @@
       </c>
       <c r="K20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>-281003</v>
+        <v>-281002</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>33</v>
@@ -2824,7 +2852,7 @@
       </c>
       <c r="K21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>16107</v>
+        <v>16108</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>85</v>
@@ -2900,7 +2928,7 @@
       </c>
       <c r="K22" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>34539.5</v>
+        <v>34540.5</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>48</v>
@@ -2976,7 +3004,7 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>40562</v>
+        <v>40563</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>32</v>
@@ -3052,7 +3080,7 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>26692</v>
+        <v>26693</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>32</v>
@@ -3128,7 +3156,7 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>34722</v>
+        <v>34723</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>48</v>
@@ -3204,7 +3232,7 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>32532</v>
+        <v>32533</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>32</v>
@@ -3280,7 +3308,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>31072</v>
+        <v>31073</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>32</v>
@@ -3356,7 +3384,7 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>28517</v>
+        <v>28518</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>109</v>
@@ -3508,7 +3536,7 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>43117</v>
+        <v>43118</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>36</v>
@@ -3660,7 +3688,7 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>12457</v>
+        <v>12458</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>36</v>
@@ -3812,7 +3840,7 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" ref="K34:K65" ca="1" si="12">IFERROR(TODAY()-$J34, "NA")</f>
-        <v>12822</v>
+        <v>12823</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>14</v>
@@ -3888,7 +3916,7 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>27057</v>
+        <v>27058</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>32</v>
@@ -4344,7 +4372,7 @@
       </c>
       <c r="K41" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>23407</v>
+        <v>23408</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>48</v>
@@ -4420,7 +4448,7 @@
       </c>
       <c r="K42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>19757</v>
+        <v>19758</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>48</v>
@@ -4496,7 +4524,7 @@
       </c>
       <c r="K43" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>26327</v>
+        <v>26328</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>32</v>
@@ -4648,7 +4676,7 @@
       </c>
       <c r="K45" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>28517</v>
+        <v>28518</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>32</v>
@@ -4952,7 +4980,7 @@
       </c>
       <c r="K49" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>19757</v>
+        <v>19758</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>32</v>
@@ -5028,7 +5056,7 @@
       </c>
       <c r="K50" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>12457</v>
+        <v>12458</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>33</v>
@@ -5484,7 +5512,7 @@
       </c>
       <c r="K56" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>38007</v>
+        <v>38008</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>32</v>
@@ -5788,7 +5816,7 @@
       </c>
       <c r="K60" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>16107</v>
+        <v>16108</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>36</v>
@@ -5940,7 +5968,7 @@
       </c>
       <c r="K62" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>24867</v>
+        <v>24868</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>48</v>
@@ -6016,7 +6044,7 @@
       </c>
       <c r="K63" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>31437</v>
+        <v>31438</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>48</v>
@@ -6168,7 +6196,7 @@
       </c>
       <c r="K65" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>33</v>
@@ -6244,7 +6272,7 @@
       </c>
       <c r="K66" s="5">
         <f t="shared" ref="K66:K88" ca="1" si="15">IFERROR(TODAY()-$J66, "NA")</f>
-        <v>21582</v>
+        <v>21583</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>48</v>
@@ -6320,7 +6348,7 @@
       </c>
       <c r="K67" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>21947</v>
+        <v>21948</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>48</v>
@@ -7916,7 +7944,7 @@
       </c>
       <c r="K88" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>29247</v>
+        <v>29248</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>36</v>
@@ -7974,7 +8002,7 @@
       </c>
       <c r="C92">
         <f ca="1">DATEDIF($B92, TODAY(), "D")</f>
-        <v>9738</v>
+        <v>9739</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -7988,7 +8016,7 @@
       </c>
       <c r="C93">
         <f t="shared" ref="C93:C98" ca="1" si="23">DATEDIF($B93, TODAY(), "D")</f>
-        <v>8645</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8000,7 +8028,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="23"/>
-        <v>7546</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8012,7 +8040,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="23"/>
-        <v>17767</v>
+        <v>17768</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8024,7 +8052,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="23"/>
-        <v>16675</v>
+        <v>16676</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8036,7 +8064,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="23"/>
-        <v>15576</v>
+        <v>15577</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,7 +8076,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="23"/>
-        <v>3681</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8958,22 +8986,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2BC748-F643-4C71-8674-6F8571EF4D1F}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>288</v>
       </c>
@@ -8981,10 +9011,19 @@
         <v>287</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8994,8 +9033,20 @@
       <c r="C2">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>COUNTIF($C$2:$C$82, C2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>$H$10-C2</f>
+        <v>108.35802469135803</v>
+      </c>
+      <c r="F2">
+        <f>E2^2</f>
+        <v>11741.461515012956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9005,13 +9056,25 @@
       <c r="C3">
         <v>79</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">COUNTIF($C$2:$C$82, C3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>$H$10-C3</f>
+        <v>95.358024691358025</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">E3^2</f>
+        <v>9093.1528730376467</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9021,17 +9084,29 @@
       <c r="C4">
         <v>88</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>$H$10-C4</f>
+        <v>86.358024691358025</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>7457.7084285932024</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9041,16 +9116,32 @@
       <c r="C5">
         <v>94</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>$H$10-C5</f>
+        <v>80.358024691358025</v>
+      </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>6457.4121322969058</v>
+      </c>
+      <c r="H5">
         <f>SUM(C2:C82)/COUNT(C2:C82)</f>
         <v>174.35802469135803</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">VLOOKUP(IF(ISODD(COUNT(A2:A82)),CEILING(COUNT(A2:A82)/2,1), COUNT(A2:A82/2,1)),A2:C82,3,FALSE)</f>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">VLOOKUP(IF(ISODD(COUNT(A2:A82)),CEILING(COUNT(A2:A82)/2,1), COUNT(A2:A82/2,1)),A2:C82,3,FALSE)</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>_xlfn.XLOOKUP(MAX(D2:D82),D2:D82,C2:C82,"Not Found")</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9060,9 +9151,20 @@
       <c r="C6">
         <v>96</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>$H$10-C6</f>
+        <v>78.358024691358025</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>6139.980033531474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9072,8 +9174,20 @@
       <c r="C7">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>$H$10-C7</f>
+        <v>78.358024691358025</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6139.980033531474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9083,9 +9197,25 @@
       <c r="C8">
         <v>97</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>$H$10-C8</f>
+        <v>77.358024691358025</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5984.263984148758</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9095,13 +9225,29 @@
       <c r="C9">
         <v>112</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>$H$10-C9</f>
+        <v>62.358024691358025</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3888.5232434080172</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9111,17 +9257,32 @@
       <c r="C10">
         <v>122</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>$H$10-C10</f>
+        <v>52.358024691358025</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2741.3627495808569</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE(C2:C82)</f>
+        <v>174.35802469135803</v>
+      </c>
+      <c r="I10" s="1">
+        <f>MEDIAN(C2:C82)</f>
+        <v>180</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xlfn.MODE.MULT(C2:C82)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9131,8 +9292,20 @@
       <c r="C11">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>$H$10-C11</f>
+        <v>37.358024691358025</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1395.622008840116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9142,8 +9315,20 @@
       <c r="C12">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f>$H$10-C12</f>
+        <v>24.358024691358025</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>593.31336686480722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9153,8 +9338,20 @@
       <c r="C13">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>$H$10-C13</f>
+        <v>24.358024691358025</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>593.31336686480722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9164,8 +9361,20 @@
       <c r="C14">
         <v>157</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>$H$10-C14</f>
+        <v>17.358024691358025</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>301.30102118579487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9175,8 +9384,20 @@
       <c r="C15">
         <v>160</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>$H$10-C15</f>
+        <v>14.358024691358025</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>206.15287303764671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9186,8 +9407,25 @@
       <c r="C16">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>$H$10-C16</f>
+        <v>11.358024691358025</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>129.00472488949856</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9197,9 +9435,23 @@
       <c r="C17">
         <v>163</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>$H$10-C17</f>
+        <v>11.358024691358025</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>129.00472488949856</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9209,8 +9461,24 @@
       <c r="C18">
         <v>165</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <f>$H$10-C18</f>
+        <v>9.3580246913580254</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>87.57262612406646</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(F2:F82)</f>
+        <v>1194.0570035055634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9220,8 +9488,21 @@
       <c r="C19">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f>$H$10-C19</f>
+        <v>9.3580246913580254</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>87.57262612406646</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9231,8 +9512,20 @@
       <c r="C20">
         <v>165</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f>$H$10-C20</f>
+        <v>9.3580246913580254</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>87.57262612406646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9242,8 +9535,25 @@
       <c r="C21">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>$H$10-C21</f>
+        <v>8.3580246913580254</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>69.856576741350409</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9253,8 +9563,26 @@
       <c r="C22">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f>$H$10-C22</f>
+        <v>7.3580246913580254</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>54.140527358634365</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9264,8 +9592,28 @@
       <c r="C23">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f>$H$10-C23</f>
+        <v>7.3580246913580254</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>54.140527358634365</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.VAR.P(E2:E82)</f>
+        <v>1194.0570035055632</v>
+      </c>
+      <c r="I23">
+        <f>_xlfn.STDEV.P(C2:C82)</f>
+        <v>34.555129915912097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9275,8 +9623,24 @@
       <c r="C24">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>$H$10-C24</f>
+        <v>6.3580246913580254</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>40.424477975918315</v>
+      </c>
+      <c r="H24" t="str">
+        <f>"sqrt: "&amp;SQRT(H23)</f>
+        <v>sqrt: 34.5551299159121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9286,8 +9650,20 @@
       <c r="C25">
         <v>170</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f>$H$10-C25</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9297,8 +9673,20 @@
       <c r="C26">
         <v>170</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f>$H$10-C26</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9308,8 +9696,20 @@
       <c r="C27">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f>$H$10-C27</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9319,8 +9719,20 @@
       <c r="C28">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f>$H$10-C28</f>
+        <v>4.3580246913580254</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>18.992379210486213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9330,8 +9742,20 @@
       <c r="C29">
         <v>171</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>$H$10-C29</f>
+        <v>3.3580246913580254</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>11.276329827770162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9341,8 +9765,25 @@
       <c r="C30">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>$H$10-C30</f>
+        <v>2.3580246913580254</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>5.5602804450541106</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9352,8 +9793,26 @@
       <c r="C31">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>$H$10-C31</f>
+        <v>1.3580246913580254</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.8442310623380602</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9363,8 +9822,28 @@
       <c r="C32">
         <v>175</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f>$H$10-C32</f>
+        <v>-0.64197530864197461</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.41213229690595854</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP(CEILING(COUNT(C2:C82)*0.9,1),A2:F82,3,TRUE)</f>
+        <v>206</v>
+      </c>
+      <c r="I32">
+        <f>VLOOKUP(CEILING(COUNT(C2:C82)*0.25,1),A2:F82,3,TRUE)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9374,8 +9853,20 @@
       <c r="C33">
         <v>175</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f>$H$10-C33</f>
+        <v>-0.64197530864197461</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.41213229690595854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9385,8 +9876,20 @@
       <c r="C34">
         <v>175</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f>$H$10-C34</f>
+        <v>-0.64197530864197461</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.41213229690595854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9396,8 +9899,25 @@
       <c r="C35">
         <v>177</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f>$H$10-C35</f>
+        <v>-2.6419753086419746</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>6.9800335314738566</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9407,8 +9927,26 @@
       <c r="C36">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f>$H$10-C36</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>13.263984148757807</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9418,8 +9956,28 @@
       <c r="C37">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <f>$H$10-C37</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>13.263984148757807</v>
+      </c>
+      <c r="H37">
+        <f>_xlfn.PERCENTILE.INC(C2:C82,0.9)</f>
+        <v>206</v>
+      </c>
+      <c r="I37">
+        <f>_xlfn.PERCENTILE.INC(C2:C82,0.25)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9429,8 +9987,20 @@
       <c r="C38">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f>$H$10-C38</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>13.263984148757807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9440,8 +10010,20 @@
       <c r="C39">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>$H$10-C39</f>
+        <v>-3.6419753086419746</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>13.263984148757807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9451,8 +10033,20 @@
       <c r="C40">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <f>$H$10-C40</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9462,8 +10056,20 @@
       <c r="C41">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <f>$H$10-C41</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9473,8 +10079,20 @@
       <c r="C42">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <f>$H$10-C42</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9484,8 +10102,20 @@
       <c r="C43">
         <v>180</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <f>$H$10-C43</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9495,8 +10125,20 @@
       <c r="C44">
         <v>180</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <f>$H$10-C44</f>
+        <v>-5.6419753086419746</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>31.831885383325705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9506,8 +10148,20 @@
       <c r="C45">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>$H$10-C45</f>
+        <v>-7.6419753086419746</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>58.399786617893604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9517,8 +10171,20 @@
       <c r="C46">
         <v>183</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <f>$H$10-C46</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9528,8 +10194,20 @@
       <c r="C47">
         <v>183</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <f>$H$10-C47</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9539,8 +10217,20 @@
       <c r="C48">
         <v>183</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <f>$H$10-C48</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9550,8 +10240,20 @@
       <c r="C49">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <f>$H$10-C49</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9561,8 +10263,20 @@
       <c r="C50">
         <v>183</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <f>$H$10-C50</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9572,8 +10286,20 @@
       <c r="C51">
         <v>183</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <f>$H$10-C51</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9583,8 +10309,20 @@
       <c r="C52">
         <v>183</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <f>$H$10-C52</f>
+        <v>-8.6419753086419746</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>74.683737235177546</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9594,8 +10332,20 @@
       <c r="C53">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f>$H$10-C53</f>
+        <v>-9.6419753086419746</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>92.967687852461495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9605,8 +10355,20 @@
       <c r="C54">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f>$H$10-C54</f>
+        <v>-10.641975308641975</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>113.25163846974544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9616,8 +10378,20 @@
       <c r="C55">
         <v>188</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <f>$H$10-C55</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9627,8 +10401,20 @@
       <c r="C56">
         <v>188</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <f>$H$10-C56</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9638,8 +10424,20 @@
       <c r="C57">
         <v>188</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <f>$H$10-C57</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9649,8 +10447,20 @@
       <c r="C58">
         <v>188</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <f>$H$10-C58</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9660,8 +10470,20 @@
       <c r="C59">
         <v>188</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <f>$H$10-C59</f>
+        <v>-13.641975308641975</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>186.10349032159729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9671,8 +10493,20 @@
       <c r="C60">
         <v>190</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f>$H$10-C60</f>
+        <v>-15.641975308641975</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>244.67139155616519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9682,8 +10516,20 @@
       <c r="C61">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <f>$H$10-C61</f>
+        <v>-16.641975308641975</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>276.95534217344914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9693,8 +10539,20 @@
       <c r="C62">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <f>$H$10-C62</f>
+        <v>-16.641975308641975</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>276.95534217344914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9704,8 +10562,20 @@
       <c r="C63">
         <v>191</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <f>$H$10-C63</f>
+        <v>-16.641975308641975</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>276.95534217344914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9715,8 +10585,20 @@
       <c r="C64">
         <v>193</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <f>$H$10-C64</f>
+        <v>-18.641975308641975</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>347.52324340801704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9726,8 +10608,20 @@
       <c r="C65">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <f>$H$10-C65</f>
+        <v>-18.641975308641975</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>347.52324340801704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9737,8 +10631,20 @@
       <c r="C66">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <f>$H$10-C66</f>
+        <v>-18.641975308641975</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>347.52324340801704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9748,8 +10654,20 @@
       <c r="C67">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" ref="D67:D82" si="2">COUNTIF($C$2:$C$82, C67)</f>
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <f>$H$10-C67</f>
+        <v>-21.641975308641975</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F82" si="3">E67^2</f>
+        <v>468.37509525986889</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9759,8 +10677,20 @@
       <c r="C68">
         <v>196</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <f>$H$10-C68</f>
+        <v>-21.641975308641975</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>468.37509525986889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9770,8 +10700,20 @@
       <c r="C69">
         <v>196</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <f>$H$10-C69</f>
+        <v>-21.641975308641975</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>468.37509525986889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9781,8 +10723,20 @@
       <c r="C70">
         <v>198</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <f>$H$10-C70</f>
+        <v>-23.641975308641975</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>558.94299649443678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9792,8 +10746,20 @@
       <c r="C71">
         <v>198</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <f>$H$10-C71</f>
+        <v>-23.641975308641975</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>558.94299649443678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9803,8 +10769,20 @@
       <c r="C72">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f>$H$10-C72</f>
+        <v>-25.641975308641975</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>657.51089772900468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9814,8 +10792,20 @@
       <c r="C73">
         <v>202</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f>$H$10-C73</f>
+        <v>-27.641975308641975</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>764.07879896357258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9825,8 +10815,20 @@
       <c r="C74">
         <v>206</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <f>$H$10-C74</f>
+        <v>-31.641975308641975</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>1001.2146014327084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9836,8 +10838,20 @@
       <c r="C75">
         <v>206</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <f>$H$10-C75</f>
+        <v>-31.641975308641975</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>1001.2146014327084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9847,8 +10861,20 @@
       <c r="C76">
         <v>213</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f>$H$10-C76</f>
+        <v>-38.641975308641975</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>1493.2022557536961</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9858,8 +10884,20 @@
       <c r="C77">
         <v>216</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f>$H$10-C77</f>
+        <v>-41.641975308641975</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>1734.0541076055479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9869,8 +10907,20 @@
       <c r="C78">
         <v>224</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <f>$H$10-C78</f>
+        <v>-49.641975308641975</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>2464.3257125438195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9880,8 +10930,20 @@
       <c r="C79">
         <v>228</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <f>$H$10-C79</f>
+        <v>-53.641975308641975</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>2877.4615150129553</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9891,8 +10953,20 @@
       <c r="C80">
         <v>229</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <f>$H$10-C80</f>
+        <v>-54.641975308641975</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>2985.7454656302393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9902,8 +10976,20 @@
       <c r="C81">
         <v>234</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <f>$H$10-C81</f>
+        <v>-59.641975308641975</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>3557.1652187166592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9912,6 +10998,18 @@
       </c>
       <c r="C82">
         <v>264</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f>$H$10-C82</f>
+        <v>-89.641975308641975</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>8035.6837372351774</v>
       </c>
     </row>
   </sheetData>
